--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,27 +634,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/artfynd/A 47608-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/artfynd/A 47608-2022.xlsx", "A 47608-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/kartor/A 47608-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/kartor/A 47608-2022.png", "A 47608-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomål/A 47608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomål/A 47608-2022.docx", "A 47608-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomålsmail/A 47608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomålsmail/A 47608-2022.docx", "A 47608-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsyn/A 47608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsyn/A 47608-2022.docx", "A 47608-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsynsmail/A 47608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsynsmail/A 47608-2022.docx", "A 47608-2022")</f>
         <v/>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/artfynd/A 51102-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/artfynd/A 51102-2019.xlsx", "A 51102-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/kartor/A 51102-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/kartor/A 51102-2019.png", "A 51102-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomål/A 51102-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomål/A 51102-2019.docx", "A 51102-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomålsmail/A 51102-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomålsmail/A 51102-2019.docx", "A 51102-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsyn/A 51102-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsyn/A 51102-2019.docx", "A 51102-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsynsmail/A 51102-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsynsmail/A 51102-2019.docx", "A 51102-2019")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/artfynd/A 15068-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/artfynd/A 15068-2023.xlsx", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/kartor/A 15068-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/kartor/A 15068-2023.png", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomål/A 15068-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomål/A 15068-2023.docx", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomålsmail/A 15068-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/klagomålsmail/A 15068-2023.docx", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsyn/A 15068-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsyn/A 15068-2023.docx", "A 15068-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsynsmail/A 15068-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORKELLJUNGA/tillsynsmail/A 15068-2023.docx", "A 15068-2023")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y205"/>
+  <dimension ref="A1:Y206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
       </c>
       <c r="R204" s="2" t="inlineStr"/>
     </row>
-    <row r="205">
+    <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
           <t>A 37628-2023</t>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12334,6 +12334,68 @@
         <v>0</v>
       </c>
       <c r="R205" s="2" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>A 45588-2023</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>ÖRKELLJUNGA</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45194</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45194</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45194</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>

--- a/Översikt ÖRKELLJUNGA.xlsx
+++ b/Översikt ÖRKELLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43332</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43423</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43425</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>43448</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43507</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43515</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43525</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43551</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43563</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43619</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43633</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43641</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43641</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43647</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43660</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43745</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43754</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43762</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43780</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43790</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43790</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43811</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43811</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43871</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43955</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43955</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43962</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43997</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43997</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43998</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44021</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44049</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44067</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44067</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44067</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44085</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>44106</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44109</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44109</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44154</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44154</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44154</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44155</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44169</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44174</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44186</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44207</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44207</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44213</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44215</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44215</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44215</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44216</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44232</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44235</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44235</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44246</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44298</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44351</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44358</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44387</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44416</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44416</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44465</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44516</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44599</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44635</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44721</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44752</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44752</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44782</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44806</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44813</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44813</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44841</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44855</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44897</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44915</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44937</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44939</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44939</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44942</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44952</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44984</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45011</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45012</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45034</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45035</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45069</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45072</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45077</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45077</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45078</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45079</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45084</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45090</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45133</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45140</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45140</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45140</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45194</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
